--- a/data/전세보증금반환보증실적.xlsx
+++ b/data/전세보증금반환보증실적.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seungjun\Desktop\BIGDATA_edu\Project_Can\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216D91EE-B102-4352-801D-3663D206320F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72DBF78-BA8B-43EC-813A-5275E4678D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="1290" windowWidth="21765" windowHeight="13965" xr2:uid="{0051D7C8-F438-4F9C-A31E-C1A54AFF5D49}"/>
+    <workbookView xWindow="11970" yWindow="840" windowWidth="15345" windowHeight="13965" xr2:uid="{0051D7C8-F438-4F9C-A31E-C1A54AFF5D49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,14 +582,14 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="7" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1149,35 +1149,35 @@
         <v>26</v>
       </c>
       <c r="B20" s="5">
-        <f>SUM(B3:B9)</f>
+        <f t="shared" ref="B20:I20" si="0">SUM(B3:B9)</f>
         <v>22976</v>
       </c>
       <c r="C20" s="5">
-        <f>SUM(C3:C9)</f>
+        <f t="shared" si="0"/>
         <v>43796</v>
       </c>
       <c r="D20" s="5">
-        <f>SUM(D3:D9)</f>
+        <f t="shared" si="0"/>
         <v>38527</v>
       </c>
       <c r="E20" s="5">
-        <f>SUM(E3:E9)</f>
+        <f t="shared" si="0"/>
         <v>67299</v>
       </c>
       <c r="F20" s="5">
-        <f>SUM(F3:F9)</f>
+        <f t="shared" si="0"/>
         <v>47394</v>
       </c>
       <c r="G20" s="5">
-        <f>SUM(G3:G9)</f>
+        <f t="shared" si="0"/>
         <v>90122</v>
       </c>
       <c r="H20" s="5">
-        <f>SUM(H3:H9)</f>
+        <f t="shared" si="0"/>
         <v>36373</v>
       </c>
       <c r="I20" s="5">
-        <f>SUM(I3:I9)</f>
+        <f t="shared" si="0"/>
         <v>72256</v>
       </c>
     </row>
